--- a/public/Excel/MASTER.xlsx
+++ b/public/Excel/MASTER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\WORKS\HWI\JPAYROLL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hrd\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="105">
   <si>
     <t>religion</t>
   </si>
@@ -267,87 +267,6 @@
   </si>
   <si>
     <t>S2</t>
-  </si>
-  <si>
-    <t>04/01/2016</t>
-  </si>
-  <si>
-    <t>01/07/2016</t>
-  </si>
-  <si>
-    <t>02/09/2016</t>
-  </si>
-  <si>
-    <t>01/01/1990</t>
-  </si>
-  <si>
-    <t>02/02/1999</t>
-  </si>
-  <si>
-    <t>02/02/2000</t>
-  </si>
-  <si>
-    <t>02/02/2001</t>
-  </si>
-  <si>
-    <t>02/02/2002</t>
-  </si>
-  <si>
-    <t>02/02/2003</t>
-  </si>
-  <si>
-    <t>02/02/2004</t>
-  </si>
-  <si>
-    <t>02/02/2005</t>
-  </si>
-  <si>
-    <t>02/02/2006</t>
-  </si>
-  <si>
-    <t>02/02/2007</t>
-  </si>
-  <si>
-    <t>02/02/2008</t>
-  </si>
-  <si>
-    <t>02/02/2009</t>
-  </si>
-  <si>
-    <t>02/02/2010</t>
-  </si>
-  <si>
-    <t>02/02/2011</t>
-  </si>
-  <si>
-    <t>02/02/2012</t>
-  </si>
-  <si>
-    <t>02/02/2013</t>
-  </si>
-  <si>
-    <t>02/02/2014</t>
-  </si>
-  <si>
-    <t>02/02/2015</t>
-  </si>
-  <si>
-    <t>02/02/2016</t>
-  </si>
-  <si>
-    <t>02/02/2017</t>
-  </si>
-  <si>
-    <t>02/02/2018</t>
-  </si>
-  <si>
-    <t>02/02/2019</t>
-  </si>
-  <si>
-    <t>02/02/2020</t>
-  </si>
-  <si>
-    <t>02/02/2021</t>
   </si>
   <si>
     <t>department</t>
@@ -425,10 +344,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -531,16 +450,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,19 +744,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2:AN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="23" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -938,13 +858,13 @@
         <v>70</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AG1" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AI1" s="7" t="s">
         <v>74</v>
@@ -978,8 +898,8 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>84</v>
+      <c r="E2" s="16">
+        <v>32874</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -990,7 +910,7 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1033,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="X2" s="6">
         <v>15040913459</v>
@@ -1041,17 +961,17 @@
       <c r="Y2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="13" t="s">
-        <v>81</v>
+      <c r="Z2" s="16">
+        <v>42461</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>85</v>
+      <c r="AB2" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>36193</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>4</v>
@@ -1077,14 +997,14 @@
       <c r="AK2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="13" t="s">
-        <v>83</v>
+      <c r="AL2" s="16">
+        <v>42409</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -1100,8 +1020,8 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>84</v>
+      <c r="E3" s="16">
+        <v>32874</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -1112,7 +1032,7 @@
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1163,17 +1083,17 @@
       <c r="Y3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="13" t="s">
-        <v>81</v>
+      <c r="Z3" s="16">
+        <v>42461</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>86</v>
+      <c r="AB3" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>36194</v>
       </c>
       <c r="AD3" s="6" t="s">
         <v>4</v>
@@ -1199,14 +1119,14 @@
       <c r="AK3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL3" s="13" t="s">
-        <v>83</v>
+      <c r="AL3" s="16">
+        <v>42409</v>
       </c>
       <c r="AM3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -1222,8 +1142,8 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>84</v>
+      <c r="E4" s="16">
+        <v>32874</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -1234,7 +1154,7 @@
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1277,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="X4" s="6">
         <v>15040913459</v>
@@ -1285,17 +1205,17 @@
       <c r="Y4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="13" t="s">
-        <v>81</v>
+      <c r="Z4" s="16">
+        <v>42461</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>87</v>
+      <c r="AB4" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>36195</v>
       </c>
       <c r="AD4" s="6" t="s">
         <v>4</v>
@@ -1321,14 +1241,14 @@
       <c r="AK4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL4" s="13" t="s">
-        <v>83</v>
+      <c r="AL4" s="16">
+        <v>42409</v>
       </c>
       <c r="AM4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -1344,8 +1264,8 @@
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>84</v>
+      <c r="E5" s="16">
+        <v>32874</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
@@ -1356,7 +1276,7 @@
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -1399,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="X5" s="6">
         <v>15040913459</v>
@@ -1407,17 +1327,17 @@
       <c r="Y5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="13" t="s">
-        <v>81</v>
+      <c r="Z5" s="16">
+        <v>42461</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB5" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>88</v>
+      <c r="AB5" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>36196</v>
       </c>
       <c r="AD5" s="6" t="s">
         <v>4</v>
@@ -1443,14 +1363,14 @@
       <c r="AK5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AL5" s="13" t="s">
-        <v>83</v>
+      <c r="AL5" s="16">
+        <v>42409</v>
       </c>
       <c r="AM5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -1466,8 +1386,8 @@
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>84</v>
+      <c r="E6" s="16">
+        <v>32874</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
@@ -1478,7 +1398,7 @@
       <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1521,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="X6" s="6">
         <v>15040913459</v>
@@ -1529,17 +1449,17 @@
       <c r="Y6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="13" t="s">
-        <v>81</v>
+      <c r="Z6" s="16">
+        <v>42461</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>89</v>
+      <c r="AB6" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>36197</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>4</v>
@@ -1565,14 +1485,14 @@
       <c r="AK6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AL6" s="13" t="s">
-        <v>83</v>
+      <c r="AL6" s="16">
+        <v>42409</v>
       </c>
       <c r="AM6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1588,8 +1508,8 @@
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>84</v>
+      <c r="E7" s="16">
+        <v>32874</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
@@ -1600,7 +1520,7 @@
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -1643,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="X7" s="6">
         <v>15040913459</v>
@@ -1651,17 +1571,17 @@
       <c r="Y7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z7" s="13" t="s">
-        <v>81</v>
+      <c r="Z7" s="16">
+        <v>42461</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>90</v>
+      <c r="AB7" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>36198</v>
       </c>
       <c r="AD7" s="6" t="s">
         <v>4</v>
@@ -1687,14 +1607,14 @@
       <c r="AK7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AL7" s="13" t="s">
-        <v>83</v>
+      <c r="AL7" s="16">
+        <v>42409</v>
       </c>
       <c r="AM7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1710,8 +1630,8 @@
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>84</v>
+      <c r="E8" s="16">
+        <v>32874</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
@@ -1722,7 +1642,7 @@
       <c r="H8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -1765,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="X8" s="6">
         <v>15040913459</v>
@@ -1773,17 +1693,17 @@
       <c r="Y8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Z8" s="13" t="s">
-        <v>81</v>
+      <c r="Z8" s="16">
+        <v>42461</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>91</v>
+      <c r="AB8" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>36199</v>
       </c>
       <c r="AD8" s="6" t="s">
         <v>4</v>
@@ -1809,14 +1729,14 @@
       <c r="AK8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL8" s="13" t="s">
-        <v>83</v>
+      <c r="AL8" s="16">
+        <v>42409</v>
       </c>
       <c r="AM8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -1832,8 +1752,8 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>84</v>
+      <c r="E9" s="16">
+        <v>32874</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -1844,7 +1764,7 @@
       <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -1887,7 +1807,7 @@
         <v>12</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="X9" s="6">
         <v>15040913459</v>
@@ -1895,17 +1815,17 @@
       <c r="Y9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="13" t="s">
-        <v>81</v>
+      <c r="Z9" s="16">
+        <v>42461</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC9" s="13" t="s">
-        <v>92</v>
+      <c r="AB9" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>36200</v>
       </c>
       <c r="AD9" s="6" t="s">
         <v>4</v>
@@ -1931,14 +1851,14 @@
       <c r="AK9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL9" s="13" t="s">
-        <v>83</v>
+      <c r="AL9" s="16">
+        <v>42409</v>
       </c>
       <c r="AM9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -1954,8 +1874,8 @@
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>84</v>
+      <c r="E10" s="16">
+        <v>32874</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>1</v>
@@ -1966,7 +1886,7 @@
       <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -2009,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="X10" s="6">
         <v>15040913459</v>
@@ -2017,17 +1937,17 @@
       <c r="Y10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="13" t="s">
-        <v>81</v>
+      <c r="Z10" s="16">
+        <v>42461</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>93</v>
+      <c r="AB10" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>36201</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>4</v>
@@ -2053,18 +1973,18 @@
       <c r="AK10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL10" s="13" t="s">
-        <v>83</v>
+      <c r="AL10" s="16">
+        <v>42409</v>
       </c>
       <c r="AM10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>2203052371</v>
       </c>
       <c r="B11" s="3">
@@ -2076,8 +1996,8 @@
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>84</v>
+      <c r="E11" s="16">
+        <v>32874</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
@@ -2088,7 +2008,7 @@
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -2131,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="X11" s="6">
         <v>15040913459</v>
@@ -2139,17 +2059,17 @@
       <c r="Y11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Z11" s="13" t="s">
-        <v>81</v>
+      <c r="Z11" s="16">
+        <v>42461</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>94</v>
+      <c r="AB11" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>36202</v>
       </c>
       <c r="AD11" s="6" t="s">
         <v>4</v>
@@ -2175,14 +2095,14 @@
       <c r="AK11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AL11" s="13" t="s">
-        <v>83</v>
+      <c r="AL11" s="16">
+        <v>42409</v>
       </c>
       <c r="AM11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO11" s="1"/>
     </row>
@@ -2199,8 +2119,8 @@
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>84</v>
+      <c r="E12" s="16">
+        <v>32874</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1</v>
@@ -2211,7 +2131,7 @@
       <c r="H12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -2254,7 +2174,7 @@
         <v>12</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="X12" s="6">
         <v>15040913459</v>
@@ -2262,17 +2182,17 @@
       <c r="Y12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>81</v>
+      <c r="Z12" s="16">
+        <v>42461</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>95</v>
+      <c r="AB12" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>36203</v>
       </c>
       <c r="AD12" s="6" t="s">
         <v>4</v>
@@ -2298,14 +2218,14 @@
       <c r="AK12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AL12" s="13" t="s">
-        <v>83</v>
+      <c r="AL12" s="16">
+        <v>42409</v>
       </c>
       <c r="AM12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO12" s="1"/>
     </row>
@@ -2322,8 +2242,8 @@
       <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>84</v>
+      <c r="E13" s="16">
+        <v>32874</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>1</v>
@@ -2334,7 +2254,7 @@
       <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -2377,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="X13" s="6">
         <v>15040913459</v>
@@ -2385,17 +2305,17 @@
       <c r="Y13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Z13" s="13" t="s">
-        <v>81</v>
+      <c r="Z13" s="16">
+        <v>42461</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>96</v>
+      <c r="AB13" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>36204</v>
       </c>
       <c r="AD13" s="6" t="s">
         <v>4</v>
@@ -2421,14 +2341,14 @@
       <c r="AK13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AL13" s="13" t="s">
-        <v>83</v>
+      <c r="AL13" s="16">
+        <v>42409</v>
       </c>
       <c r="AM13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO13" s="1"/>
     </row>
@@ -2445,8 +2365,8 @@
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>84</v>
+      <c r="E14" s="16">
+        <v>32874</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
@@ -2457,7 +2377,7 @@
       <c r="H14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -2500,7 +2420,7 @@
         <v>12</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="X14" s="6">
         <v>15040913459</v>
@@ -2508,17 +2428,17 @@
       <c r="Y14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>81</v>
+      <c r="Z14" s="16">
+        <v>42461</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>97</v>
+      <c r="AB14" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>36205</v>
       </c>
       <c r="AD14" s="6" t="s">
         <v>4</v>
@@ -2544,14 +2464,14 @@
       <c r="AK14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL14" s="13" t="s">
-        <v>83</v>
+      <c r="AL14" s="16">
+        <v>42409</v>
       </c>
       <c r="AM14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO14" s="1"/>
     </row>
@@ -2568,8 +2488,8 @@
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>84</v>
+      <c r="E15" s="16">
+        <v>32874</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
@@ -2580,7 +2500,7 @@
       <c r="H15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -2623,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="X15" s="6">
         <v>15040913459</v>
@@ -2631,17 +2551,17 @@
       <c r="Y15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Z15" s="13" t="s">
-        <v>81</v>
+      <c r="Z15" s="16">
+        <v>42461</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>98</v>
+      <c r="AB15" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>36206</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>4</v>
@@ -2667,14 +2587,14 @@
       <c r="AK15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL15" s="13" t="s">
-        <v>83</v>
+      <c r="AL15" s="16">
+        <v>42409</v>
       </c>
       <c r="AM15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO15" s="1"/>
     </row>
@@ -2691,8 +2611,8 @@
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>84</v>
+      <c r="E16" s="16">
+        <v>32874</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
@@ -2703,7 +2623,7 @@
       <c r="H16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -2746,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="X16" s="6">
         <v>15040913459</v>
@@ -2754,17 +2674,17 @@
       <c r="Y16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>81</v>
+      <c r="Z16" s="16">
+        <v>42461</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>99</v>
+      <c r="AB16" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>36207</v>
       </c>
       <c r="AD16" s="6" t="s">
         <v>4</v>
@@ -2790,14 +2710,14 @@
       <c r="AK16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL16" s="13" t="s">
-        <v>83</v>
+      <c r="AL16" s="16">
+        <v>42409</v>
       </c>
       <c r="AM16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO16" s="1"/>
     </row>
@@ -2814,8 +2734,8 @@
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>84</v>
+      <c r="E17" s="16">
+        <v>32874</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -2826,7 +2746,7 @@
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -2869,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="X17" s="6">
         <v>15040913459</v>
@@ -2877,17 +2797,17 @@
       <c r="Y17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z17" s="13" t="s">
-        <v>81</v>
+      <c r="Z17" s="16">
+        <v>42461</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>100</v>
+      <c r="AB17" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>36208</v>
       </c>
       <c r="AD17" s="6" t="s">
         <v>4</v>
@@ -2913,14 +2833,14 @@
       <c r="AK17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AL17" s="13" t="s">
-        <v>83</v>
+      <c r="AL17" s="16">
+        <v>42409</v>
       </c>
       <c r="AM17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO17" s="1"/>
     </row>
@@ -2937,8 +2857,8 @@
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>84</v>
+      <c r="E18" s="16">
+        <v>32874</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -2949,7 +2869,7 @@
       <c r="H18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -2992,7 +2912,7 @@
         <v>12</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="X18" s="6">
         <v>15040913459</v>
@@ -3000,17 +2920,17 @@
       <c r="Y18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>81</v>
+      <c r="Z18" s="16">
+        <v>42461</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB18" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>101</v>
+      <c r="AB18" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>36209</v>
       </c>
       <c r="AD18" s="6" t="s">
         <v>4</v>
@@ -3036,14 +2956,14 @@
       <c r="AK18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AL18" s="13" t="s">
-        <v>83</v>
+      <c r="AL18" s="16">
+        <v>42409</v>
       </c>
       <c r="AM18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO18" s="1"/>
     </row>
@@ -3060,8 +2980,8 @@
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>84</v>
+      <c r="E19" s="16">
+        <v>32874</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -3072,7 +2992,7 @@
       <c r="H19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -3115,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="X19" s="6">
         <v>15040913459</v>
@@ -3123,17 +3043,17 @@
       <c r="Y19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Z19" s="13" t="s">
-        <v>81</v>
+      <c r="Z19" s="16">
+        <v>42461</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>102</v>
+      <c r="AB19" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>36210</v>
       </c>
       <c r="AD19" s="6" t="s">
         <v>4</v>
@@ -3159,14 +3079,14 @@
       <c r="AK19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AL19" s="13" t="s">
-        <v>83</v>
+      <c r="AL19" s="16">
+        <v>42409</v>
       </c>
       <c r="AM19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO19" s="1"/>
     </row>
@@ -3183,8 +3103,8 @@
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>84</v>
+      <c r="E20" s="16">
+        <v>32874</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -3195,7 +3115,7 @@
       <c r="H20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -3238,7 +3158,7 @@
         <v>12</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="X20" s="6">
         <v>15040913459</v>
@@ -3246,17 +3166,17 @@
       <c r="Y20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z20" s="13" t="s">
-        <v>81</v>
+      <c r="Z20" s="16">
+        <v>42461</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC20" s="13" t="s">
-        <v>103</v>
+      <c r="AB20" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>36211</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>4</v>
@@ -3282,19 +3202,19 @@
       <c r="AK20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AL20" s="13" t="s">
-        <v>83</v>
+      <c r="AL20" s="16">
+        <v>42409</v>
       </c>
       <c r="AM20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO20" s="1"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>2983884244.11515</v>
       </c>
       <c r="B21" s="3">
@@ -3306,8 +3226,8 @@
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>84</v>
+      <c r="E21" s="16">
+        <v>32874</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -3318,7 +3238,7 @@
       <c r="H21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -3361,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="X21" s="6">
         <v>15040913459</v>
@@ -3369,17 +3289,17 @@
       <c r="Y21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Z21" s="13" t="s">
-        <v>81</v>
+      <c r="Z21" s="16">
+        <v>42461</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC21" s="13" t="s">
-        <v>104</v>
+      <c r="AB21" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>36212</v>
       </c>
       <c r="AD21" s="6" t="s">
         <v>4</v>
@@ -3405,14 +3325,14 @@
       <c r="AK21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AL21" s="13" t="s">
-        <v>83</v>
+      <c r="AL21" s="16">
+        <v>42409</v>
       </c>
       <c r="AM21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -3428,8 +3348,8 @@
       <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>84</v>
+      <c r="E22" s="16">
+        <v>32874</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -3440,7 +3360,7 @@
       <c r="H22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -3483,7 +3403,7 @@
         <v>12</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="X22" s="6">
         <v>15040913459</v>
@@ -3491,17 +3411,17 @@
       <c r="Y22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z22" s="13" t="s">
-        <v>81</v>
+      <c r="Z22" s="16">
+        <v>42461</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC22" s="13" t="s">
-        <v>105</v>
+      <c r="AB22" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>36213</v>
       </c>
       <c r="AD22" s="6" t="s">
         <v>4</v>
@@ -3527,14 +3447,14 @@
       <c r="AK22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AL22" s="13" t="s">
-        <v>83</v>
+      <c r="AL22" s="16">
+        <v>42409</v>
       </c>
       <c r="AM22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -3550,8 +3470,8 @@
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>84</v>
+      <c r="E23" s="16">
+        <v>32874</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -3562,7 +3482,7 @@
       <c r="H23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -3605,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="X23" s="6">
         <v>15040913459</v>
@@ -3613,17 +3533,17 @@
       <c r="Y23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Z23" s="13" t="s">
-        <v>81</v>
+      <c r="Z23" s="16">
+        <v>42461</v>
       </c>
       <c r="AA23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB23" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC23" s="13" t="s">
-        <v>106</v>
+      <c r="AB23" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>36214</v>
       </c>
       <c r="AD23" s="6" t="s">
         <v>4</v>
@@ -3649,14 +3569,14 @@
       <c r="AK23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL23" s="13" t="s">
-        <v>83</v>
+      <c r="AL23" s="16">
+        <v>42409</v>
       </c>
       <c r="AM23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -3672,8 +3592,8 @@
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>84</v>
+      <c r="E24" s="16">
+        <v>32874</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -3684,7 +3604,7 @@
       <c r="H24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -3727,7 +3647,7 @@
         <v>12</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="X24" s="6">
         <v>15040913459</v>
@@ -3735,17 +3655,17 @@
       <c r="Y24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z24" s="13" t="s">
-        <v>81</v>
+      <c r="Z24" s="16">
+        <v>42461</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC24" s="13" t="s">
-        <v>107</v>
+      <c r="AB24" s="16">
+        <v>42376</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>36215</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>4</v>
@@ -3771,84 +3691,84 @@
       <c r="AK24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL24" s="13" t="s">
-        <v>83</v>
+      <c r="AL24" s="16">
+        <v>42409</v>
       </c>
       <c r="AM24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E29" s="14"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E32" s="14"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="14"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="14"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="14"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="14"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="14"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="14"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="14"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="14"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="14"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="14"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="14"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="14"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="14"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="14"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="14"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="14"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="14"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="14"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="14"/>
+      <c r="E51" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
